--- a/Data/Distribution of fans in Mazovian Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Mazovian Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\mazovia-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13E6A3-A9B6-4987-94B8-D9692A54771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55E1451-53C8-4AF8-9449-DEA496F90302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2400" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legia W." sheetId="23" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="202">
   <si>
     <t>Klub</t>
   </si>
@@ -634,6 +634,18 @@
   </si>
   <si>
     <t>Lesznowola</t>
+  </si>
+  <si>
+    <t>Holandia (Emigracja)</t>
+  </si>
+  <si>
+    <t>USA (Emigracja)</t>
+  </si>
+  <si>
+    <t>Zjednoczone Emiraty Arbskie (Emigracja)</t>
+  </si>
+  <si>
+    <t>Irlandia (Emigracja)</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF3022-688A-43D7-9E04-913C6F2260B9}">
-  <dimension ref="A1:P171"/>
+  <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M168" sqref="M168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2137,8 +2149,8 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>168</v>
+      <c r="A41" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2158,7 +2170,7 @@
     </row>
     <row r="42" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2177,8 +2189,8 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>180</v>
+      <c r="A43" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2198,7 +2210,7 @@
     </row>
     <row r="44" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2218,7 +2230,7 @@
     </row>
     <row r="45" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2238,7 +2250,7 @@
     </row>
     <row r="46" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2258,7 +2270,7 @@
     </row>
     <row r="47" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2278,7 +2290,7 @@
     </row>
     <row r="48" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2298,7 +2310,7 @@
     </row>
     <row r="49" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2318,7 +2330,7 @@
     </row>
     <row r="50" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2338,7 +2350,7 @@
     </row>
     <row r="51" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2358,7 +2370,7 @@
     </row>
     <row r="52" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2378,7 +2390,7 @@
     </row>
     <row r="53" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2398,7 +2410,7 @@
     </row>
     <row r="54" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2418,7 +2430,7 @@
     </row>
     <row r="55" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2438,7 +2450,7 @@
     </row>
     <row r="56" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2458,7 +2470,7 @@
     </row>
     <row r="57" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2478,7 +2490,7 @@
     </row>
     <row r="58" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2498,7 +2510,7 @@
     </row>
     <row r="59" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2518,7 +2530,7 @@
     </row>
     <row r="60" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2538,7 +2550,7 @@
     </row>
     <row r="61" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2558,7 +2570,7 @@
     </row>
     <row r="62" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2578,7 +2590,7 @@
     </row>
     <row r="63" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2598,7 +2610,7 @@
     </row>
     <row r="64" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2618,7 +2630,7 @@
     </row>
     <row r="65" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2638,7 +2650,7 @@
     </row>
     <row r="66" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2658,7 +2670,7 @@
     </row>
     <row r="67" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2678,7 +2690,7 @@
     </row>
     <row r="68" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2698,7 +2710,7 @@
     </row>
     <row r="69" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2718,7 +2730,7 @@
     </row>
     <row r="70" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2738,7 +2750,7 @@
     </row>
     <row r="71" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2758,7 +2770,7 @@
     </row>
     <row r="72" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2778,7 +2790,7 @@
     </row>
     <row r="73" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2798,7 +2810,7 @@
     </row>
     <row r="74" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2818,7 +2830,7 @@
     </row>
     <row r="75" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2838,7 +2850,7 @@
     </row>
     <row r="76" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2858,7 +2870,7 @@
     </row>
     <row r="77" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2878,7 +2890,7 @@
     </row>
     <row r="78" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2898,7 +2910,7 @@
     </row>
     <row r="79" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2918,7 +2930,7 @@
     </row>
     <row r="80" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2938,7 +2950,7 @@
     </row>
     <row r="81" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2958,7 +2970,7 @@
     </row>
     <row r="82" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2978,7 +2990,7 @@
     </row>
     <row r="83" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2998,7 +3010,7 @@
     </row>
     <row r="84" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3018,7 +3030,7 @@
     </row>
     <row r="85" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3038,7 +3050,7 @@
     </row>
     <row r="86" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3058,7 +3070,7 @@
     </row>
     <row r="87" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3078,7 +3090,7 @@
     </row>
     <row r="88" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3098,7 +3110,7 @@
     </row>
     <row r="89" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3118,7 +3130,7 @@
     </row>
     <row r="90" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3138,7 +3150,7 @@
     </row>
     <row r="91" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3158,7 +3170,7 @@
     </row>
     <row r="92" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3178,7 +3190,7 @@
     </row>
     <row r="93" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3198,7 +3210,7 @@
     </row>
     <row r="94" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3218,7 +3230,7 @@
     </row>
     <row r="95" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3238,7 +3250,7 @@
     </row>
     <row r="96" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3258,7 +3270,7 @@
     </row>
     <row r="97" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3278,7 +3290,7 @@
     </row>
     <row r="98" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3298,7 +3310,7 @@
     </row>
     <row r="99" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3318,7 +3330,7 @@
     </row>
     <row r="100" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3338,7 +3350,7 @@
     </row>
     <row r="101" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3358,7 +3370,7 @@
     </row>
     <row r="102" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3378,7 +3390,7 @@
     </row>
     <row r="103" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3398,7 +3410,7 @@
     </row>
     <row r="104" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3418,7 +3430,7 @@
     </row>
     <row r="105" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3438,7 +3450,7 @@
     </row>
     <row r="106" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3458,7 +3470,7 @@
     </row>
     <row r="107" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3478,7 +3490,7 @@
     </row>
     <row r="108" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3498,7 +3510,7 @@
     </row>
     <row r="109" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3518,7 +3530,7 @@
     </row>
     <row r="110" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3538,7 +3550,7 @@
     </row>
     <row r="111" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3558,307 +3570,327 @@
     </row>
     <row r="112" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>70</v>
+      <c r="A158" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A171">
-    <sortCondition ref="A56:A171"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A175">
+    <sortCondition ref="A164:A175"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -7807,7 +7839,7 @@
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7827,7 +7859,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7866,7 +7898,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7886,7 +7918,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7906,7 +7938,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7925,8 +7957,8 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>187</v>
+      <c r="A8" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7946,7 +7978,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7966,7 +7998,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7986,7 +8018,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8005,8 +8037,8 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>188</v>
+      <c r="A12" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -9738,6 +9770,9 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+    <sortCondition ref="A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9747,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -9788,7 +9823,7 @@
       </c>
       <c r="B2" s="6">
         <f>COUNTA('Legia W.'!A:A) - 1</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C2" s="6">
         <v>149</v>
